--- a/Files/Calendários academicos/Academico.xlsx
+++ b/Files/Calendários academicos/Academico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\INF01131-Monografia\Files\Calendários academicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A65BCC-4658-48ED-B3CF-B1671A28DDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA7E069-1663-4578-9544-44DD092C4581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="909" activeTab="15" xr2:uid="{F8DF1A3A-66FC-41E4-8A83-51CA4BB2CB1E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="909" xr2:uid="{F8DF1A3A-66FC-41E4-8A83-51CA4BB2CB1E}"/>
   </bookViews>
   <sheets>
     <sheet name="19.1" sheetId="1" r:id="rId1"/>
@@ -63,6 +63,44 @@
     <author>João Vítor Fernandes Dias</author>
   </authors>
   <commentList>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{8623E86C-0C45-4155-A396-F1100705C64D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>15/08/2021</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{093AD89C-7A7C-43B8-942C-3632F4F05EDA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>15/09/2021</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>João Vítor Fernandes Dias</author>
+  </authors>
+  <commentList>
     <comment ref="A3" authorId="0" shapeId="0" xr:uid="{3BE25B59-C5AE-4D10-96F6-13CCC8B50E7A}">
       <text>
         <r>
@@ -95,7 +133,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>João Vítor Fernandes Dias</author>
@@ -133,7 +171,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>João Vítor Fernandes Dias</author>
@@ -220,7 +258,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +285,13 @@
       <color indexed="81"/>
       <name val="Segoe UI"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -775,7 +820,9 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScale="222" zoomScaleNormal="222" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -935,7 +982,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1096,7 +1143,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1257,7 +1304,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1265,6 +1312,7 @@
     <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
     <col min="5" max="16384" width="44" hidden="1"/>
   </cols>
   <sheetData>
@@ -1391,7 +1439,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1552,7 +1600,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="A12" sqref="A2:A12"/>
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1709,7 +1757,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1717,6 +1765,7 @@
     <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
     <col min="5" max="16384" width="44" hidden="1"/>
   </cols>
   <sheetData>
@@ -1842,8 +1891,8 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -2004,7 +2053,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -2253,17 +2302,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74D0BC2-5689-4EDC-821E-B1A197FBF438}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74D0BC2-5689-4EDC-821E-B1A197FBF438}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="13" bestFit="1" customWidth="1"/>
@@ -2331,10 +2380,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="9">
-        <v>44423</v>
+        <v>44058</v>
       </c>
       <c r="C6" s="10">
-        <v>44454</v>
+        <v>44089</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2410,6 +2459,7 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2604,9 +2654,7 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
-    </sheetView>
+    <sheetView zoomScale="222" zoomScaleNormal="222" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2766,7 +2814,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="C12" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -2932,7 +2980,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -2940,6 +2988,7 @@
     <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
     <col min="5" max="16384" width="44" hidden="1"/>
   </cols>
   <sheetData>

--- a/Files/Calendários academicos/Academico.xlsx
+++ b/Files/Calendários academicos/Academico.xlsx
@@ -8,45 +8,47 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GitHub\INF01131-Monografia\Files\Calendários academicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA7E069-1663-4578-9544-44DD092C4581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7AF5DE-92C9-49C5-A981-3C72140B5C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="909" xr2:uid="{F8DF1A3A-66FC-41E4-8A83-51CA4BB2CB1E}"/>
   </bookViews>
   <sheets>
-    <sheet name="19.1" sheetId="1" r:id="rId1"/>
-    <sheet name="19.2" sheetId="2" r:id="rId2"/>
-    <sheet name="19.3 X" sheetId="16" state="hidden" r:id="rId3"/>
-    <sheet name="20.1" sheetId="3" r:id="rId4"/>
-    <sheet name="20.2 X" sheetId="4" state="hidden" r:id="rId5"/>
-    <sheet name="20.3 X" sheetId="5" state="hidden" r:id="rId6"/>
-    <sheet name="21.1" sheetId="6" r:id="rId7"/>
-    <sheet name="21.2" sheetId="7" r:id="rId8"/>
-    <sheet name="21.3" sheetId="8" r:id="rId9"/>
-    <sheet name="22.1" sheetId="10" r:id="rId10"/>
-    <sheet name="22.2" sheetId="11" r:id="rId11"/>
-    <sheet name="22.3" sheetId="12" r:id="rId12"/>
-    <sheet name="23.1" sheetId="13" r:id="rId13"/>
-    <sheet name="23.2" sheetId="14" r:id="rId14"/>
-    <sheet name="23.3" sheetId="15" r:id="rId15"/>
-    <sheet name="24.1" sheetId="9" r:id="rId16"/>
+    <sheet name="Coletânea" sheetId="17" r:id="rId1"/>
+    <sheet name="19.1" sheetId="1" r:id="rId2"/>
+    <sheet name="19.2" sheetId="2" r:id="rId3"/>
+    <sheet name="19.3 X" sheetId="16" state="hidden" r:id="rId4"/>
+    <sheet name="20.1" sheetId="3" r:id="rId5"/>
+    <sheet name="20.2 X" sheetId="4" state="hidden" r:id="rId6"/>
+    <sheet name="20.3 X" sheetId="5" state="hidden" r:id="rId7"/>
+    <sheet name="21.1" sheetId="6" r:id="rId8"/>
+    <sheet name="21.2" sheetId="7" r:id="rId9"/>
+    <sheet name="21.3" sheetId="8" r:id="rId10"/>
+    <sheet name="22.1" sheetId="10" r:id="rId11"/>
+    <sheet name="22.2" sheetId="11" r:id="rId12"/>
+    <sheet name="22.3" sheetId="12" r:id="rId13"/>
+    <sheet name="23.1" sheetId="13" r:id="rId14"/>
+    <sheet name="23.2" sheetId="14" r:id="rId15"/>
+    <sheet name="23.3" sheetId="15" r:id="rId16"/>
+    <sheet name="24.1" sheetId="9" r:id="rId17"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'19.1'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'19.2'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'19.3 X'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'20.1'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20.2 X'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'20.3 X'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'21.1'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'21.2'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'21.3'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'22.1'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'22.2'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'22.3'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'23.1'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'23.2'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'23.3'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'24.1'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'19.1'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'19.2'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'19.3 X'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'20.1'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'20.2 X'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'20.3 X'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'21.1'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'21.2'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'21.3'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'22.1'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'22.2'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'22.3'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'23.1'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'23.2'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'23.3'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'24.1'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Coletânea!$A$1:$S$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,6 +60,44 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>João Vítor Fernandes Dias</author>
+  </authors>
+  <commentList>
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{2C924425-603D-497E-9524-3D6B8B8CA539}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>15/08/2021</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{2C2EFF1A-B749-4565-90FC-67E6469F826D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>15/09/2021</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>João Vítor Fernandes Dias</author>
@@ -95,7 +135,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>João Vítor Fernandes Dias</author>
@@ -109,7 +149,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Cadastro de atividades</t>
         </r>
@@ -123,45 +163,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>/faltas</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>João Vítor Fernandes Dias</author>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{BBCE10E7-68E1-483C-B73F-128ADED2137A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Cadastro de atividades</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{8CA5DF01-00C1-4803-90DB-AC625E40CE3C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>/faltas</t>
         </r>
@@ -177,6 +179,44 @@
     <author>João Vítor Fernandes Dias</author>
   </authors>
   <commentList>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{BBCE10E7-68E1-483C-B73F-128ADED2137A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cadastro de atividades</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{8CA5DF01-00C1-4803-90DB-AC625E40CE3C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>/faltas</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>João Vítor Fernandes Dias</author>
+  </authors>
+  <commentList>
     <comment ref="A3" authorId="0" shapeId="0" xr:uid="{83C468C4-4544-4A46-A6A3-35F841AAE272}">
       <text>
         <r>
@@ -185,7 +225,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Cadastro de atividades</t>
         </r>
@@ -199,7 +239,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>/faltas</t>
         </r>
@@ -210,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="33">
   <si>
     <t>Início</t>
   </si>
@@ -253,12 +293,69 @@
   <si>
     <t>Atividades</t>
   </si>
+  <si>
+    <t>Ordem</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Estilo</t>
+  </si>
+  <si>
+    <t>2019.1</t>
+  </si>
+  <si>
+    <t>2019.2</t>
+  </si>
+  <si>
+    <t>2019.3</t>
+  </si>
+  <si>
+    <t>2020.1</t>
+  </si>
+  <si>
+    <t>2020.2</t>
+  </si>
+  <si>
+    <t>2020.3</t>
+  </si>
+  <si>
+    <t>2021.1</t>
+  </si>
+  <si>
+    <t>2021.2</t>
+  </si>
+  <si>
+    <t>2021.3</t>
+  </si>
+  <si>
+    <t>2022.1</t>
+  </si>
+  <si>
+    <t>2022.2</t>
+  </si>
+  <si>
+    <t>2022.3</t>
+  </si>
+  <si>
+    <t>2023.1</t>
+  </si>
+  <si>
+    <t>2023.2</t>
+  </si>
+  <si>
+    <t>2023.3</t>
+  </si>
+  <si>
+    <t>2024.1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,17 +381,10 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,6 +394,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -500,6 +602,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,22 +934,1294 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A671A3DE-3A9D-4FDE-9ECB-4438AD3ECD64}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4764178-DF13-48CE-B8A6-4D62BAEBF688}">
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.5546875" hidden="1" customWidth="1"/>
+    <col min="10" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17">
+        <v>43658</v>
+      </c>
+      <c r="E2" s="17">
+        <v>43819</v>
+      </c>
+      <c r="G2" s="17">
+        <v>43881</v>
+      </c>
+      <c r="J2" s="17">
+        <v>44264</v>
+      </c>
+      <c r="K2" s="17">
+        <v>44397</v>
+      </c>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17">
+        <v>44593</v>
+      </c>
+      <c r="N2" s="17">
+        <v>44753</v>
+      </c>
+      <c r="O2" s="17">
+        <v>44909</v>
+      </c>
+      <c r="P2" s="17">
+        <v>44975</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>45124</v>
+      </c>
+      <c r="R2" s="17">
+        <v>45272</v>
+      </c>
+      <c r="S2" s="17">
+        <v>45333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
+        <v>43466</v>
+      </c>
+      <c r="E3" s="17">
+        <v>43672</v>
+      </c>
+      <c r="G3" s="17">
+        <v>43869</v>
+      </c>
+      <c r="J3" s="17">
+        <v>44237</v>
+      </c>
+      <c r="K3" s="17">
+        <v>44403</v>
+      </c>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17">
+        <v>44627</v>
+      </c>
+      <c r="N3" s="17">
+        <v>44754</v>
+      </c>
+      <c r="O3" s="17">
+        <v>44910</v>
+      </c>
+      <c r="P3" s="17">
+        <v>44985</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>45145</v>
+      </c>
+      <c r="R3" s="17">
+        <v>45278</v>
+      </c>
+      <c r="S3" s="17">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="17">
+        <v>43466</v>
+      </c>
+      <c r="E4" s="17">
+        <v>43672</v>
+      </c>
+      <c r="G4" s="17">
+        <v>43869</v>
+      </c>
+      <c r="J4" s="17">
+        <v>44237</v>
+      </c>
+      <c r="K4" s="17">
+        <v>44409</v>
+      </c>
+      <c r="L4" s="17">
+        <v>44562</v>
+      </c>
+      <c r="M4" s="17">
+        <v>44614</v>
+      </c>
+      <c r="N4" s="17">
+        <v>44767</v>
+      </c>
+      <c r="O4" s="17">
+        <v>44927</v>
+      </c>
+      <c r="P4" s="17">
+        <v>44975</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>45139</v>
+      </c>
+      <c r="R4" s="17">
+        <v>45283</v>
+      </c>
+      <c r="S4" s="17">
+        <v>45333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="17">
+        <v>43535</v>
+      </c>
+      <c r="E5" s="17">
+        <v>43684</v>
+      </c>
+      <c r="G5" s="17">
+        <v>43892</v>
+      </c>
+      <c r="J5" s="17">
+        <v>44263</v>
+      </c>
+      <c r="K5" s="17">
+        <v>44417</v>
+      </c>
+      <c r="L5" s="17">
+        <v>44571</v>
+      </c>
+      <c r="M5" s="17">
+        <v>44627</v>
+      </c>
+      <c r="N5" s="17">
+        <v>44788</v>
+      </c>
+      <c r="O5" s="17">
+        <v>44927</v>
+      </c>
+      <c r="P5" s="17">
+        <v>44991</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>45145</v>
+      </c>
+      <c r="R5" s="17">
+        <v>45299</v>
+      </c>
+      <c r="S5" s="17">
+        <v>45342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="17">
+        <v>43467</v>
+      </c>
+      <c r="E6" s="17">
+        <v>43673</v>
+      </c>
+      <c r="G6" s="17">
+        <v>43870</v>
+      </c>
+      <c r="J6" s="17">
+        <v>44238</v>
+      </c>
+      <c r="K6" s="17">
+        <v>44519</v>
+      </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17">
+        <v>44787</v>
+      </c>
+      <c r="N6" s="17">
+        <v>44754</v>
+      </c>
+      <c r="O6" s="17">
+        <v>44936</v>
+      </c>
+      <c r="P6" s="17">
+        <v>44988</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>45146</v>
+      </c>
+      <c r="R6" s="17">
+        <v>45301</v>
+      </c>
+      <c r="S6" s="17">
+        <v>45373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17">
+        <v>43700</v>
+      </c>
+      <c r="E7" s="17">
+        <v>43891</v>
+      </c>
+      <c r="G7" s="17">
+        <v>44033</v>
+      </c>
+      <c r="J7" s="17">
+        <v>44402</v>
+      </c>
+      <c r="K7" s="17">
+        <v>44510</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17">
+        <v>44680</v>
+      </c>
+      <c r="N7" s="17">
+        <v>44799</v>
+      </c>
+      <c r="O7" s="17">
+        <v>44936</v>
+      </c>
+      <c r="P7" s="17">
+        <v>45016</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>45156</v>
+      </c>
+      <c r="R7" s="17">
+        <v>45282</v>
+      </c>
+      <c r="S7" s="17">
+        <v>45359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="17">
+        <v>43535</v>
+      </c>
+      <c r="E8" s="17">
+        <v>43684</v>
+      </c>
+      <c r="G8" s="17">
+        <v>44058</v>
+      </c>
+      <c r="J8" s="17">
+        <v>44423</v>
+      </c>
+      <c r="K8" s="17">
+        <v>44418</v>
+      </c>
+      <c r="L8" s="17">
+        <v>44593</v>
+      </c>
+      <c r="M8" s="17">
+        <v>44627</v>
+      </c>
+      <c r="N8" s="17">
+        <v>44805</v>
+      </c>
+      <c r="O8" s="17">
+        <v>44958</v>
+      </c>
+      <c r="P8" s="17">
+        <v>45017</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>45159</v>
+      </c>
+      <c r="R8" s="17">
+        <v>45301</v>
+      </c>
+      <c r="S8" s="17">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="17">
+        <v>43662</v>
+      </c>
+      <c r="E9" s="17">
+        <v>43830</v>
+      </c>
+      <c r="G9" s="17">
+        <v>44015</v>
+      </c>
+      <c r="J9" s="17">
+        <v>44385</v>
+      </c>
+      <c r="K9" s="17">
+        <v>44540</v>
+      </c>
+      <c r="L9" s="17">
+        <v>44613</v>
+      </c>
+      <c r="M9" s="17">
+        <v>44756</v>
+      </c>
+      <c r="N9" s="17">
+        <v>44909</v>
+      </c>
+      <c r="O9" s="17">
+        <v>44974</v>
+      </c>
+      <c r="P9" s="17">
+        <v>45114</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>45268</v>
+      </c>
+      <c r="R9" s="17">
+        <v>45324</v>
+      </c>
+      <c r="S9" s="17">
+        <v>45479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="17">
+        <v>43665</v>
+      </c>
+      <c r="E10" s="17">
+        <v>43850</v>
+      </c>
+      <c r="G10" s="17">
+        <v>44089</v>
+      </c>
+      <c r="J10" s="17">
+        <v>44454</v>
+      </c>
+      <c r="K10" s="17">
+        <v>44551</v>
+      </c>
+      <c r="L10" s="17">
+        <v>44631</v>
+      </c>
+      <c r="M10" s="17">
+        <v>44769</v>
+      </c>
+      <c r="N10" s="17">
+        <v>44916</v>
+      </c>
+      <c r="O10" s="17">
+        <v>44974</v>
+      </c>
+      <c r="P10" s="17">
+        <v>45128</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>45280</v>
+      </c>
+      <c r="R10" s="17">
+        <v>45331</v>
+      </c>
+      <c r="S10" s="17">
+        <v>45484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="17">
+        <v>43671</v>
+      </c>
+      <c r="E11" s="17">
+        <v>43868</v>
+      </c>
+      <c r="G11" s="17">
+        <v>44043</v>
+      </c>
+      <c r="J11" s="17">
+        <v>44408</v>
+      </c>
+      <c r="K11" s="17">
+        <v>44561</v>
+      </c>
+      <c r="L11" s="17">
+        <v>44613</v>
+      </c>
+      <c r="M11" s="17">
+        <v>44766</v>
+      </c>
+      <c r="N11" s="17">
+        <v>44926</v>
+      </c>
+      <c r="O11" s="17">
+        <v>44974</v>
+      </c>
+      <c r="P11" s="17">
+        <v>45138</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>45282</v>
+      </c>
+      <c r="R11" s="17">
+        <v>45332</v>
+      </c>
+      <c r="S11" s="17">
+        <v>45488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="17">
+        <v>43507</v>
+      </c>
+      <c r="E12" s="17">
+        <v>43669</v>
+      </c>
+      <c r="G12" s="17">
+        <v>43800</v>
+      </c>
+      <c r="J12" s="17">
+        <v>44237</v>
+      </c>
+      <c r="K12" s="17">
+        <v>44403</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17">
+        <v>44593</v>
+      </c>
+      <c r="N12" s="17">
+        <v>44754</v>
+      </c>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17">
+        <v>44975</v>
+      </c>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="17">
+        <v>43507</v>
+      </c>
+      <c r="E13" s="17">
+        <v>43672</v>
+      </c>
+      <c r="G13" s="17">
+        <v>43869</v>
+      </c>
+      <c r="J13" s="17">
+        <v>44259</v>
+      </c>
+      <c r="K13" s="17">
+        <v>44418</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17">
+        <v>44615</v>
+      </c>
+      <c r="N13" s="17">
+        <v>44776</v>
+      </c>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17">
+        <v>44985</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>45139</v>
+      </c>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17">
+        <v>45348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="17">
+        <v>43507</v>
+      </c>
+      <c r="E14" s="17">
+        <v>43678</v>
+      </c>
+      <c r="G14" s="17">
+        <v>43876</v>
+      </c>
+      <c r="J14" s="17">
+        <v>44264</v>
+      </c>
+      <c r="K14" s="17">
+        <v>44417</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17">
+        <v>44613</v>
+      </c>
+      <c r="N14" s="17">
+        <v>44768</v>
+      </c>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17">
+        <v>44975</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>45145</v>
+      </c>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17">
+        <v>45348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="17">
+        <v>43518</v>
+      </c>
+      <c r="E15" s="17">
+        <v>43696</v>
+      </c>
+      <c r="G15" s="17">
+        <v>43951</v>
+      </c>
+      <c r="J15" s="17">
+        <v>44385</v>
+      </c>
+      <c r="K15" s="17">
+        <v>44449</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17">
+        <v>44680</v>
+      </c>
+      <c r="N15" s="17">
+        <v>44755</v>
+      </c>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17">
+        <v>45046</v>
+      </c>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="17">
+        <v>43518</v>
+      </c>
+      <c r="E16" s="17">
+        <v>43678</v>
+      </c>
+      <c r="G16" s="17">
+        <v>43875</v>
+      </c>
+      <c r="J16" s="17">
+        <v>44270</v>
+      </c>
+      <c r="K16" s="17">
+        <v>44438</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17">
+        <v>44627</v>
+      </c>
+      <c r="N16" s="17">
+        <v>44778</v>
+      </c>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17">
+        <v>44988</v>
+      </c>
+      <c r="Q16" s="17">
+        <v>45142</v>
+      </c>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="17">
+        <v>43549</v>
+      </c>
+      <c r="E17" s="17">
+        <v>43696</v>
+      </c>
+      <c r="G17" s="17">
+        <v>43906</v>
+      </c>
+      <c r="J17" s="17">
+        <v>44308</v>
+      </c>
+      <c r="K17" s="17">
+        <v>44440</v>
+      </c>
+      <c r="L17" s="17">
+        <v>44545</v>
+      </c>
+      <c r="M17" s="17">
+        <v>44628</v>
+      </c>
+      <c r="N17" s="17">
+        <v>44788</v>
+      </c>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17">
+        <v>44991</v>
+      </c>
+      <c r="Q17" s="17">
+        <v>45152</v>
+      </c>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="17">
+        <v>43550</v>
+      </c>
+      <c r="E18" s="17">
+        <v>43700</v>
+      </c>
+      <c r="G18" s="17">
+        <v>43917</v>
+      </c>
+      <c r="J18" s="17">
+        <v>44368</v>
+      </c>
+      <c r="K18" s="17">
+        <v>44482</v>
+      </c>
+      <c r="L18" s="17">
+        <v>44549</v>
+      </c>
+      <c r="M18" s="17">
+        <v>44680</v>
+      </c>
+      <c r="N18" s="17">
+        <v>44799</v>
+      </c>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17">
+        <v>45005</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>45159</v>
+      </c>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17">
+        <v>45373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="17">
+        <v>43630</v>
+      </c>
+      <c r="E19" s="17">
+        <v>43767</v>
+      </c>
+      <c r="G19" s="17">
+        <v>43987</v>
+      </c>
+      <c r="J19" s="17">
+        <v>44358</v>
+      </c>
+      <c r="K19" s="17">
+        <v>44512</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17">
+        <v>44712</v>
+      </c>
+      <c r="N19" s="17">
+        <v>44876</v>
+      </c>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17">
+        <v>45079</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>45240</v>
+      </c>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17">
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="17">
+        <v>43641</v>
+      </c>
+      <c r="E20" s="17">
+        <v>43809</v>
+      </c>
+      <c r="G20" s="17">
+        <v>43983</v>
+      </c>
+      <c r="J20" s="17">
+        <v>44264</v>
+      </c>
+      <c r="K20" s="17">
+        <v>44418</v>
+      </c>
+      <c r="L20" s="17">
+        <v>44544</v>
+      </c>
+      <c r="M20" s="17">
+        <v>44627</v>
+      </c>
+      <c r="N20" s="17">
+        <v>44652</v>
+      </c>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17">
+        <v>44975</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>45108</v>
+      </c>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="17">
+        <v>43656</v>
+      </c>
+      <c r="E21" s="17">
+        <v>43847</v>
+      </c>
+      <c r="G21" s="17">
+        <v>44008</v>
+      </c>
+      <c r="J21" s="17">
+        <v>44294</v>
+      </c>
+      <c r="K21" s="17">
+        <v>44540</v>
+      </c>
+      <c r="L21" s="17">
+        <v>44547</v>
+      </c>
+      <c r="M21" s="17">
+        <v>44749</v>
+      </c>
+      <c r="N21" s="17">
+        <v>44746</v>
+      </c>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17">
+        <v>45078</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>45270</v>
+      </c>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17">
+        <v>45485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="17">
+        <v>43658</v>
+      </c>
+      <c r="E22" s="17">
+        <v>43809</v>
+      </c>
+      <c r="G22" s="17">
+        <v>44015</v>
+      </c>
+      <c r="J22" s="17">
+        <v>44263</v>
+      </c>
+      <c r="K22" s="17">
+        <v>44417</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17">
+        <v>44593</v>
+      </c>
+      <c r="N22" s="17">
+        <v>44805</v>
+      </c>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17">
+        <v>44975</v>
+      </c>
+      <c r="Q22" s="17">
+        <v>45145</v>
+      </c>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17">
+        <v>45334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="17">
+        <v>43672</v>
+      </c>
+      <c r="E23" s="17">
+        <v>43819</v>
+      </c>
+      <c r="G23" s="17">
+        <v>44029</v>
+      </c>
+      <c r="J23" s="17">
+        <v>44398</v>
+      </c>
+      <c r="K23" s="17">
+        <v>44550</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17">
+        <v>44785</v>
+      </c>
+      <c r="N23" s="17">
+        <v>44926</v>
+      </c>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17">
+        <v>45002</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>45278</v>
+      </c>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17">
+        <v>45338</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:S1" xr:uid="{CD4DFC49-7D34-4238-B28E-3ADBA72CC4CE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S23">
+      <sortCondition ref="O1"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="D2:D23">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E23">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J23">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K23">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L23">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M23">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N23">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O23">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P23">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q23">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R23">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S23">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G23">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77E799D-695E-437A-B7FB-36DFF1C52266}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
     <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="44" hidden="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="16384" width="44" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -843,138 +2235,111 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="7">
-        <v>43641</v>
+        <v>44544</v>
       </c>
       <c r="C2" s="8">
-        <v>43656</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9">
-        <v>43658</v>
-      </c>
-      <c r="C3" s="10">
-        <v>43700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="9">
-        <v>43549</v>
+        <v>44545</v>
       </c>
       <c r="C4" s="10">
-        <v>43550</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9">
-        <v>43466</v>
-      </c>
-      <c r="C5" s="10">
-        <v>43467</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="9">
-        <v>43535</v>
+        <v>44593</v>
       </c>
       <c r="C6" s="10">
-        <v>43665</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="9">
-        <v>43507</v>
-      </c>
-      <c r="C7" s="10">
-        <v>43518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="9">
-        <v>43535</v>
+        <v>44571</v>
       </c>
       <c r="C8" s="10">
-        <v>43662</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9">
-        <v>43507</v>
-      </c>
-      <c r="C9" s="10">
-        <v>43518</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="9">
-        <v>43466</v>
+        <v>44562</v>
       </c>
       <c r="C10" s="10">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="9">
-        <v>43658</v>
-      </c>
-      <c r="C11" s="10">
-        <v>43672</v>
-      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="11">
-        <v>43507</v>
-      </c>
-      <c r="C12" s="12">
-        <v>43630</v>
-      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{A671A3DE-3A9D-4FDE-9ECB-4438AD3ECD64}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C12">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:C1" xr:uid="{F77E799D-695E-437A-B7FB-36DFF1C52266}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835FBB4E-D9CB-4403-9ED3-8AFF257F795D}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -1135,7 +2500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288907F0-8034-4A5E-BB20-055EFA686B40}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -1296,7 +2661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21874813-D17A-410B-BC3A-5D86D77D056C}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -1431,7 +2796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DADB13-714D-4753-B546-2B4336FE417B}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
@@ -1592,7 +2957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B006F2-900E-480B-8588-6B1EEE625483}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
@@ -1749,7 +3114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4F945A-D6E1-4AEF-AFF3-F5073C6CF14C}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
@@ -1884,7 +3249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39C9B4D-CE35-4E66-8324-4ABB442F9579}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -2046,6 +3411,167 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A671A3DE-3A9D-4FDE-9ECB-4438AD3ECD64}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="44" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7">
+        <v>43641</v>
+      </c>
+      <c r="C2" s="8">
+        <v>43656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9">
+        <v>43658</v>
+      </c>
+      <c r="C3" s="10">
+        <v>43700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9">
+        <v>43549</v>
+      </c>
+      <c r="C4" s="10">
+        <v>43550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9">
+        <v>43466</v>
+      </c>
+      <c r="C5" s="10">
+        <v>43467</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="9">
+        <v>43535</v>
+      </c>
+      <c r="C6" s="10">
+        <v>43665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9">
+        <v>43507</v>
+      </c>
+      <c r="C7" s="10">
+        <v>43518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9">
+        <v>43535</v>
+      </c>
+      <c r="C8" s="10">
+        <v>43662</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9">
+        <v>43507</v>
+      </c>
+      <c r="C9" s="10">
+        <v>43518</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9">
+        <v>43466</v>
+      </c>
+      <c r="C10" s="10">
+        <v>43671</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="9">
+        <v>43658</v>
+      </c>
+      <c r="C11" s="10">
+        <v>43672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="11">
+        <v>43507</v>
+      </c>
+      <c r="C12" s="12">
+        <v>43630</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{A671A3DE-3A9D-4FDE-9ECB-4438AD3ECD64}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C12">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B5C9C3-6A83-461E-B3A2-74F1B5267A62}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
@@ -2206,7 +3732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DA0A7A-B246-440C-B3C6-52F09D84CF9C}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2301,7 +3827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74D0BC2-5689-4EDC-821E-B1A197FBF438}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -2463,7 +3989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F0BA7F-CED9-424A-BEB7-007F20EBDD4D}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2553,7 +4079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CF6FB1-D855-4169-BB64-6F96F261725A}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2647,7 +4173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEB9D0F-DC5A-415B-855E-7E1988408A92}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -2806,7 +4332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA72F30D-4D82-4EDD-ABEC-EBDD2738B65C}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -2970,139 +4496,4 @@
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77E799D-695E-437A-B7FB-36DFF1C52266}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="16384" width="44" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="7">
-        <v>44544</v>
-      </c>
-      <c r="C2" s="8">
-        <v>44547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-    </row>
-    <row r="4" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="9">
-        <v>44545</v>
-      </c>
-      <c r="C4" s="10">
-        <v>44549</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="9">
-        <v>44593</v>
-      </c>
-      <c r="C6" s="10">
-        <v>44631</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9">
-        <v>44571</v>
-      </c>
-      <c r="C8" s="10">
-        <v>44613</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="9">
-        <v>44562</v>
-      </c>
-      <c r="C10" s="10">
-        <v>44613</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{F77E799D-695E-437A-B7FB-36DFF1C52266}"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>